--- a/Students.xlsx
+++ b/Students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyrus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4F2F89-09BE-496D-9203-15B4EF53321E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3299977D-73A8-4F36-B04B-B8E3CF3080B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{7212A498-64C5-4222-8C6D-C31E4EEBD148}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>https://www.cloudskillsboost.google/public_profiles/75009920-0e3c-465c-b9bb-f39ec96d32fa</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/760bd58f-67a0-41b8-a58b-ef2a8db0a9a6</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/c934fa0b-37ce-4101-9689-b5f20b8bef75</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a22b3a7d-0067-4461-9426-01bc7cbe2634</t>
   </si>
 </sst>
 </file>
@@ -520,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E525A5C8-79DF-405A-BA95-0E9CC7A3B574}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B31"/>
+      <selection activeCell="B32" sqref="B32:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,6 +787,30 @@
       </c>
       <c r="B31" s="2" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>220068459</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>220242638</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>220494670</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -812,6 +845,9 @@
     <hyperlink ref="B29" r:id="rId28" xr:uid="{5FAF49C8-DBDA-4AF8-95B2-D9ACF691CC94}"/>
     <hyperlink ref="B30" r:id="rId29" xr:uid="{463DF337-EC25-41B2-BB6A-72B120DACD9E}"/>
     <hyperlink ref="B31" r:id="rId30" xr:uid="{87E660AE-41B9-4CB0-A1CD-5AD05F398BE2}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{00ECFA69-5703-4B3D-8374-098CBE9A760D}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{6B625090-5442-4D4C-AEA1-4EA6562D6A17}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{A8D924A1-DE2B-4665-9D57-2EC73BD9B209}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Students.xlsx
+++ b/Students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyrus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3299977D-73A8-4F36-B04B-B8E3CF3080B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B87D8D9-3BA4-4B46-91C9-11840D04B400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{7212A498-64C5-4222-8C6D-C31E4EEBD148}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>https://www.cloudskillsboost.google/public_profiles/a22b3a7d-0067-4461-9426-01bc7cbe2634</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/e70d73e2-e8ed-4d29-8193-56b4c0a2fc15</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/28de0576-0d92-4142-b022-28e89dd25074</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/19ce0ed3-3274-4618-bbc2-d711cc627421</t>
   </si>
 </sst>
 </file>
@@ -529,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E525A5C8-79DF-405A-BA95-0E9CC7A3B574}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:B34"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,6 +820,30 @@
       </c>
       <c r="B34" s="2" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>220073549</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>220133606</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>220264723</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Students.xlsx
+++ b/Students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyrus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B87D8D9-3BA4-4B46-91C9-11840D04B400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA8A6BE-D18F-41FE-8214-7C23A0A3784F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{7212A498-64C5-4222-8C6D-C31E4EEBD148}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7212A498-64C5-4222-8C6D-C31E4EEBD148}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>https://www.cloudskillsboost.google/public_profiles/19ce0ed3-3274-4618-bbc2-d711cc627421</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/425f8493-3bd1-45e9-b20d-0f18af59f453</t>
+  </si>
+  <si>
+    <t>https://www.cloudskillsboost.google/public_profiles/a03a4b08-27bc-49c4-910c-42251eacaae4</t>
   </si>
 </sst>
 </file>
@@ -538,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E525A5C8-79DF-405A-BA95-0E9CC7A3B574}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection sqref="A1:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,6 +850,22 @@
       </c>
       <c r="B37" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>220131698</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>220106745</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
